--- a/Personal Expense Tracker.xlsx
+++ b/Personal Expense Tracker.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\welcome\OneDrive - Dr.MAHALINGAM COLLEGE OF ENGINEERING AND TECHNOLOGY\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4CE76DCA-D5F4-4892-B709-7B92509F3395}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8A65CE87-ED6A-4CE5-B9E3-BACD76C1A960}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{AD4F5D3C-15B2-4DBF-9029-E1F79DA1B896}"/>
   </bookViews>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="42">
   <si>
     <t>Personal Income, Expense Tracker</t>
   </si>
@@ -159,6 +159,9 @@
   </si>
   <si>
     <t>Vehicle maintenance</t>
+  </si>
+  <si>
+    <t>Total Expenses</t>
   </si>
   <si>
     <t>Savings/Deficit</t>
@@ -399,6 +402,146 @@
   </cellStyles>
   <dxfs count="55">
     <dxf>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left/>
+        <right/>
+        <top style="medium">
+          <color indexed="64"/>
+        </top>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left/>
+        <right/>
+        <top style="medium">
+          <color indexed="64"/>
+        </top>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left/>
+        <right/>
+        <top style="medium">
+          <color indexed="64"/>
+        </top>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left/>
+        <right/>
+        <top style="medium">
+          <color indexed="64"/>
+        </top>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left/>
+        <right/>
+        <top style="medium">
+          <color indexed="64"/>
+        </top>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left/>
+        <right/>
+        <top style="medium">
+          <color indexed="64"/>
+        </top>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left/>
+        <right/>
+        <top style="medium">
+          <color indexed="64"/>
+        </top>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left/>
+        <right/>
+        <top style="medium">
+          <color indexed="64"/>
+        </top>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left/>
+        <right/>
+        <top style="medium">
+          <color indexed="64"/>
+        </top>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left/>
+        <right/>
+        <top style="medium">
+          <color indexed="64"/>
+        </top>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left/>
+        <right/>
+        <top style="medium">
+          <color indexed="64"/>
+        </top>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left/>
+        <right/>
+        <top style="medium">
+          <color indexed="64"/>
+        </top>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left/>
+        <right/>
+        <top style="medium">
+          <color indexed="64"/>
+        </top>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left/>
+        <right/>
+        <top style="medium">
+          <color indexed="64"/>
+        </top>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
       <font>
         <color rgb="FF9C0006"/>
       </font>
@@ -447,146 +590,6 @@
           <bgColor rgb="FFFFC7CE"/>
         </patternFill>
       </fill>
-    </dxf>
-    <dxf>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left/>
-        <right/>
-        <top style="medium">
-          <color indexed="64"/>
-        </top>
-        <bottom/>
-      </border>
-    </dxf>
-    <dxf>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left/>
-        <right/>
-        <top style="medium">
-          <color indexed="64"/>
-        </top>
-        <bottom/>
-      </border>
-    </dxf>
-    <dxf>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left/>
-        <right/>
-        <top style="medium">
-          <color indexed="64"/>
-        </top>
-        <bottom/>
-      </border>
-    </dxf>
-    <dxf>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left/>
-        <right/>
-        <top style="medium">
-          <color indexed="64"/>
-        </top>
-        <bottom/>
-      </border>
-    </dxf>
-    <dxf>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left/>
-        <right/>
-        <top style="medium">
-          <color indexed="64"/>
-        </top>
-        <bottom/>
-      </border>
-    </dxf>
-    <dxf>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left/>
-        <right/>
-        <top style="medium">
-          <color indexed="64"/>
-        </top>
-        <bottom/>
-      </border>
-    </dxf>
-    <dxf>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left/>
-        <right/>
-        <top style="medium">
-          <color indexed="64"/>
-        </top>
-        <bottom/>
-      </border>
-    </dxf>
-    <dxf>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left/>
-        <right/>
-        <top style="medium">
-          <color indexed="64"/>
-        </top>
-        <bottom/>
-      </border>
-    </dxf>
-    <dxf>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left/>
-        <right/>
-        <top style="medium">
-          <color indexed="64"/>
-        </top>
-        <bottom/>
-      </border>
-    </dxf>
-    <dxf>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left/>
-        <right/>
-        <top style="medium">
-          <color indexed="64"/>
-        </top>
-        <bottom/>
-      </border>
-    </dxf>
-    <dxf>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left/>
-        <right/>
-        <top style="medium">
-          <color indexed="64"/>
-        </top>
-        <bottom/>
-      </border>
-    </dxf>
-    <dxf>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left/>
-        <right/>
-        <top style="medium">
-          <color indexed="64"/>
-        </top>
-        <bottom/>
-      </border>
-    </dxf>
-    <dxf>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left/>
-        <right/>
-        <top style="medium">
-          <color indexed="64"/>
-        </top>
-        <bottom/>
-      </border>
-    </dxf>
-    <dxf>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left/>
-        <right/>
-        <top style="medium">
-          <color indexed="64"/>
-        </top>
-        <bottom/>
-      </border>
     </dxf>
     <dxf>
       <font>
@@ -1198,20 +1201,20 @@
     <filterColumn colId="13" hiddenButton="1"/>
   </autoFilter>
   <tableColumns count="14">
-    <tableColumn id="1" xr3:uid="{4410E716-2A63-4275-8C0D-176835214BCA}" name="Item" dataDxfId="32" totalsRowDxfId="18"/>
-    <tableColumn id="2" xr3:uid="{9F2893F4-4E8C-4FE3-9DD8-8C45AE06D053}" name="Jan" totalsRowFunction="sum" dataDxfId="31" totalsRowDxfId="17"/>
-    <tableColumn id="3" xr3:uid="{AB689551-53F8-4C75-B066-6F054467E15C}" name="Feb" totalsRowFunction="sum" dataDxfId="30" totalsRowDxfId="16"/>
-    <tableColumn id="4" xr3:uid="{3B42F112-14F4-4AA8-B094-24262B978F60}" name="Mar" totalsRowFunction="sum" dataDxfId="29" totalsRowDxfId="15"/>
-    <tableColumn id="5" xr3:uid="{F10A67E7-2043-4109-9CB2-626E436504AD}" name="Apr" totalsRowFunction="sum" dataDxfId="28" totalsRowDxfId="14"/>
-    <tableColumn id="6" xr3:uid="{080CD5F6-36AB-4463-97C1-D5EB7A2AC431}" name="May" dataDxfId="27" totalsRowDxfId="13"/>
-    <tableColumn id="7" xr3:uid="{E0166B56-F776-46EC-A86C-4C323F895A50}" name="Jun" dataDxfId="26" totalsRowDxfId="12"/>
-    <tableColumn id="8" xr3:uid="{AA6E321E-BF48-4F13-A1C0-BFD8C406CDC8}" name="Jul" dataDxfId="25" totalsRowDxfId="11"/>
-    <tableColumn id="9" xr3:uid="{BC0247F8-F217-446F-BB99-224F7B4F06B9}" name="Aug" dataDxfId="24" totalsRowDxfId="10"/>
-    <tableColumn id="10" xr3:uid="{76971352-5CC2-43A8-BC4B-C15E14C1B7C8}" name="Sep" dataDxfId="23" totalsRowDxfId="9"/>
-    <tableColumn id="11" xr3:uid="{C135E7B5-8612-49EB-A6A8-F08EB1B55C14}" name="Oct" dataDxfId="22" totalsRowDxfId="8"/>
-    <tableColumn id="12" xr3:uid="{05097C7B-A98E-4305-A950-E2CD8CDC9E16}" name="Nov" dataDxfId="21" totalsRowDxfId="7"/>
-    <tableColumn id="13" xr3:uid="{808806D8-9483-47C3-9409-E653C385061B}" name="Dec" dataDxfId="20" totalsRowDxfId="6"/>
-    <tableColumn id="14" xr3:uid="{5E752972-7207-4970-AAAA-73EEECA4D2CB}" name="Year To Date" totalsRowFunction="sum" dataDxfId="19" totalsRowDxfId="5">
+    <tableColumn id="1" xr3:uid="{4410E716-2A63-4275-8C0D-176835214BCA}" name="Item" totalsRowLabel="Total Expenses" dataDxfId="32" totalsRowDxfId="13"/>
+    <tableColumn id="2" xr3:uid="{9F2893F4-4E8C-4FE3-9DD8-8C45AE06D053}" name="Jan" totalsRowFunction="sum" dataDxfId="31" totalsRowDxfId="12"/>
+    <tableColumn id="3" xr3:uid="{AB689551-53F8-4C75-B066-6F054467E15C}" name="Feb" totalsRowFunction="sum" dataDxfId="30" totalsRowDxfId="11"/>
+    <tableColumn id="4" xr3:uid="{3B42F112-14F4-4AA8-B094-24262B978F60}" name="Mar" totalsRowFunction="sum" dataDxfId="29" totalsRowDxfId="10"/>
+    <tableColumn id="5" xr3:uid="{F10A67E7-2043-4109-9CB2-626E436504AD}" name="Apr" totalsRowFunction="sum" dataDxfId="28" totalsRowDxfId="9"/>
+    <tableColumn id="6" xr3:uid="{080CD5F6-36AB-4463-97C1-D5EB7A2AC431}" name="May" dataDxfId="27" totalsRowDxfId="8"/>
+    <tableColumn id="7" xr3:uid="{E0166B56-F776-46EC-A86C-4C323F895A50}" name="Jun" dataDxfId="26" totalsRowDxfId="7"/>
+    <tableColumn id="8" xr3:uid="{AA6E321E-BF48-4F13-A1C0-BFD8C406CDC8}" name="Jul" dataDxfId="25" totalsRowDxfId="6"/>
+    <tableColumn id="9" xr3:uid="{BC0247F8-F217-446F-BB99-224F7B4F06B9}" name="Aug" dataDxfId="24" totalsRowDxfId="5"/>
+    <tableColumn id="10" xr3:uid="{76971352-5CC2-43A8-BC4B-C15E14C1B7C8}" name="Sep" dataDxfId="23" totalsRowDxfId="4"/>
+    <tableColumn id="11" xr3:uid="{C135E7B5-8612-49EB-A6A8-F08EB1B55C14}" name="Oct" dataDxfId="22" totalsRowDxfId="3"/>
+    <tableColumn id="12" xr3:uid="{05097C7B-A98E-4305-A950-E2CD8CDC9E16}" name="Nov" dataDxfId="21" totalsRowDxfId="2"/>
+    <tableColumn id="13" xr3:uid="{808806D8-9483-47C3-9409-E653C385061B}" name="Dec" dataDxfId="20" totalsRowDxfId="1"/>
+    <tableColumn id="14" xr3:uid="{5E752972-7207-4970-AAAA-73EEECA4D2CB}" name="Year To Date" totalsRowFunction="sum" dataDxfId="19" totalsRowDxfId="0">
       <calculatedColumnFormula>SUM(Income4[[#This Row],[Jan]:[Apr]])</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -1518,8 +1521,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{34CBFAA3-6200-4130-9584-098BCA497F48}">
   <dimension ref="B3:P37"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="M41" sqref="M41"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A12" workbookViewId="0">
+      <selection activeCell="C34" sqref="C34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2195,7 +2198,9 @@
       </c>
     </row>
     <row r="34" spans="3:16" x14ac:dyDescent="0.3">
-      <c r="C34" s="9"/>
+      <c r="C34" s="9" t="s">
+        <v>40</v>
+      </c>
       <c r="D34" s="9">
         <f>SUBTOTAL(109,Income4[Jan])</f>
         <v>26905</v>
@@ -2227,7 +2232,7 @@
     </row>
     <row r="37" spans="3:16" x14ac:dyDescent="0.3">
       <c r="C37" s="16" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="D37" s="17">
         <f>[1]!Income[[#Totals],[Jan]]-[1]!Expenses[[#Totals],[Jan]]</f>
@@ -2267,12 +2272,12 @@
   </mergeCells>
   <phoneticPr fontId="3" type="noConversion"/>
   <conditionalFormatting sqref="C37:G37">
-    <cfRule type="cellIs" dxfId="4" priority="2" operator="lessThan">
+    <cfRule type="cellIs" dxfId="18" priority="2" operator="lessThan">
       <formula>$D$4</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D37:G37 P37">
-    <cfRule type="cellIs" dxfId="2" priority="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="16" priority="1" operator="lessThan">
       <formula>$F$6</formula>
     </cfRule>
   </conditionalFormatting>
